--- a/doc/A1_DB定義書_PS完成版.xlsx
+++ b/doc/A1_DB定義書_PS完成版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/iwatasoratoplusdojo2023_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{773885C1-AC22-43C3-99F4-166BEF982277}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE44E776-3726-4F3B-AAD7-B6C02AC88B1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21EFF97-3090-437F-BF50-669BF50628DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8830" yWindow="210" windowWidth="10000" windowHeight="8840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>training_times</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>training_set</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -512,6 +508,10 @@
   </si>
   <si>
     <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>training_count</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1408,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1531,13 +1531,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1547,10 +1547,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
@@ -1561,7 +1561,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1583,7 +1583,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1599,13 +1599,13 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1615,10 +1615,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
@@ -1629,7 +1629,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1639,10 +1639,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>35</v>
@@ -1653,7 +1653,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1675,7 +1675,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1697,7 +1697,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1939,10 +1939,10 @@
         <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>40</v>
@@ -1962,10 +1962,10 @@
         <v>36782</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="F35" s="7">
         <v>170</v>
@@ -1998,7 +1998,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2120,13 +2120,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2142,13 +2142,13 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2172,7 +2172,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2196,7 +2196,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2212,13 +2212,13 @@
         <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2231,7 +2231,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -2240,7 +2240,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2253,7 +2253,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>44</v>
@@ -2262,7 +2262,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2272,10 +2272,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>44</v>
@@ -2284,7 +2284,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2541,7 +2541,7 @@
         <v>51</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2576,6 +2576,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2583,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBE67E5-BB80-47CA-9BA5-0894BB2D7486}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2697,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>44</v>
@@ -2706,13 +2707,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2722,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -2736,7 +2737,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2746,10 +2747,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>45</v>
@@ -2758,7 +2759,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3076,7 +3077,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3084,10 +3085,10 @@
         <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3097,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3">
         <v>0.9</v>
@@ -3110,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3">
         <v>0.9</v>
@@ -3123,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3">
         <v>3.5</v>
@@ -3136,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3149,7 +3150,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3">
         <v>0.6</v>
@@ -3162,7 +3163,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3">
         <v>0.7</v>
@@ -3175,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3">
         <v>0.4</v>
@@ -3188,7 +3189,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3">
         <v>0.8</v>
@@ -3201,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="3">
         <v>5.4</v>
@@ -3214,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3">
         <v>4.7</v>
@@ -3227,7 +3228,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="3">
         <v>1.2</v>
@@ -3240,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="3">
         <v>3.7</v>
@@ -3253,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3">
         <v>0.2</v>

--- a/doc/A1_DB定義書_PS完成版.xlsx
+++ b/doc/A1_DB定義書_PS完成版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21EFF97-3090-437F-BF50-669BF50628DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A68472A-CB98-44ED-BC7B-10A8621FEE74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8830" yWindow="210" windowWidth="10000" windowHeight="8840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18230" yWindow="630" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2584,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBE67E5-BB80-47CA-9BA5-0894BB2D7486}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3293,5 +3293,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>